--- a/Assignment 2.xlsx
+++ b/Assignment 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_E9AD336715367FBAB64BE459BC0CD2B500A8C2DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7166663F-EDDF-4F10-B77D-5F67D88B345A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28330DA-210C-4E1D-A88E-32A8692A0B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4392" yWindow="3264" windowWidth="17280" windowHeight="8880" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Very Busy Expressions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="84">
   <si>
     <t>Domain</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Initial points</t>
   </si>
   <si>
-    <t>IN[B] = Ø</t>
-  </si>
-  <si>
     <t>ITERAZIONE 0</t>
   </si>
   <si>
@@ -282,13 +279,19 @@
   </si>
   <si>
     <t>{&lt;k,a+1&gt;}</t>
+  </si>
+  <si>
+    <t>IN[B] = u</t>
+  </si>
+  <si>
+    <t>a-b, b-a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,13 +984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1053,324 +1056,324 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H9" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="H9" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1">
+    <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4"/>
       <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="12"/>
       <c r="P10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="20" t="s">
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>23</v>
-      </c>
       <c r="J11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="L11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="K12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="Q12" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
       <c r="H13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="G14" t="s">
+      <c r="H14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="K14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="Q14" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="G16" t="s">
+      <c r="H16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="K16" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="7:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="7:17">
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
       <c r="H18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="7:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.3">
       <c r="N22" s="25"/>
     </row>
-    <row r="24" spans="7:17">
+    <row r="24" spans="7:17" x14ac:dyDescent="0.3">
       <c r="K24" s="25"/>
     </row>
   </sheetData>
@@ -1388,15 +1391,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1415,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1429,13 +1432,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1454,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1465,218 +1468,218 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1">
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4"/>
       <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>18</v>
-      </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="7:14">
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
-      </c>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="7:14">
+    <row r="18" spans="7:14" x14ac:dyDescent="0.3">
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1684,7 +1687,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="23" spans="7:14">
+    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
       <c r="H23" s="25"/>
     </row>
   </sheetData>
@@ -1702,21 +1705,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="30.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.5546875" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1724,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1735,13 +1738,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1749,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1771,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1782,568 +1785,568 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="2:16" ht="15" customHeight="1">
+    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4"/>
       <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="K13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
         <v>52</v>
-      </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
       </c>
       <c r="N14" s="7"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="7:14">
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="7:14">
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="7:14">
-      <c r="G19" t="s">
+      <c r="H19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
         <v>58</v>
       </c>
-      <c r="M19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="7:14">
-      <c r="G20" t="s">
+      <c r="H20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="7:14" ht="15" customHeight="1">
-      <c r="G21" t="s">
+      <c r="H21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="7:14">
-      <c r="G22" t="s">
+      <c r="H22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="7:14" ht="15" customHeight="1">
-      <c r="G23" t="s">
+      <c r="H23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="M23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="7:14">
-      <c r="G24" t="s">
+      <c r="H24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="7:14">
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
       <c r="H25" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M25" s="29"/>
     </row>
-    <row r="29" spans="7:14">
+    <row r="29" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G29" s="12"/>
       <c r="H29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="14" t="s">
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="7:14">
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="7:14">
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="7:14">
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10">
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10">
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10">
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10">
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="25"/>
-    </row>
-    <row r="37" spans="7:10">
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="I37" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10">
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10">
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10">
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="8" t="s">
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="7:10">
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="I41" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10">
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="I42" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
